--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H2">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I2">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J2">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>1492.227315811244</v>
+        <v>454.6116294582945</v>
       </c>
       <c r="R2">
-        <v>13430.0458423012</v>
+        <v>4091.504665124651</v>
       </c>
       <c r="S2">
-        <v>0.3243317819967167</v>
+        <v>0.1524035938700456</v>
       </c>
       <c r="T2">
-        <v>0.3243317819967166</v>
+        <v>0.1524035938700455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H3">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I3">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J3">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>222.4196084741315</v>
+        <v>64.30772726492623</v>
       </c>
       <c r="R3">
-        <v>2001.776476267184</v>
+        <v>578.769545384336</v>
       </c>
       <c r="S3">
-        <v>0.04834233176344829</v>
+        <v>0.02155846466239284</v>
       </c>
       <c r="T3">
-        <v>0.04834233176344828</v>
+        <v>0.02155846466239284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H4">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I4">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J4">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>696.3755059211794</v>
+        <v>201.3416281773673</v>
       </c>
       <c r="R4">
-        <v>6267.379553290614</v>
+        <v>1812.074653596306</v>
       </c>
       <c r="S4">
-        <v>0.1513554311606305</v>
+        <v>0.06749758638255915</v>
       </c>
       <c r="T4">
-        <v>0.1513554311606305</v>
+        <v>0.06749758638255914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J5">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>1031.168117566437</v>
+        <v>1086.538058321797</v>
       </c>
       <c r="R5">
-        <v>9280.513058097929</v>
+        <v>9778.842524896168</v>
       </c>
       <c r="S5">
-        <v>0.2241217471124396</v>
+        <v>0.3642500416501426</v>
       </c>
       <c r="T5">
-        <v>0.2241217471124395</v>
+        <v>0.3642500416501425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J6">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
-        <v>153.6977687983466</v>
+        <v>153.6977687983467</v>
       </c>
       <c r="R6">
         <v>1383.27991918512</v>
       </c>
       <c r="S6">
-        <v>0.03340581606776636</v>
+        <v>0.05152550180598555</v>
       </c>
       <c r="T6">
-        <v>0.03340581606776635</v>
+        <v>0.05152550180598553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J7">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>481.2136944227801</v>
+        <v>481.2136944227799</v>
       </c>
       <c r="R7">
-        <v>4330.92324980502</v>
+        <v>4330.923249805019</v>
       </c>
       <c r="S7">
-        <v>0.1045905629656131</v>
+        <v>0.1613216462080004</v>
       </c>
       <c r="T7">
-        <v>0.104590562965613</v>
+        <v>0.1613216462080004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J8">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>324.2060621387357</v>
+        <v>341.6147369681277</v>
       </c>
       <c r="R8">
-        <v>2917.854559248621</v>
+        <v>3074.532632713149</v>
       </c>
       <c r="S8">
-        <v>0.0704653565535555</v>
+        <v>0.1145226172391377</v>
       </c>
       <c r="T8">
-        <v>0.07046535655355549</v>
+        <v>0.1145226172391377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J9">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>48.32359295516266</v>
+        <v>48.32359295516267</v>
       </c>
       <c r="R9">
-        <v>434.9123365964639</v>
+        <v>434.912336596464</v>
       </c>
       <c r="S9">
-        <v>0.01050300905871796</v>
+        <v>0.01619995784941888</v>
       </c>
       <c r="T9">
-        <v>0.01050300905871796</v>
+        <v>0.01619995784941888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J10">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
         <v>151.296761661166</v>
@@ -1066,10 +1066,10 @@
         <v>1361.670854950494</v>
       </c>
       <c r="S10">
-        <v>0.03288396332111208</v>
+        <v>0.05072059033231736</v>
       </c>
       <c r="T10">
-        <v>0.03288396332111208</v>
+        <v>0.05072059033231736</v>
       </c>
     </row>
   </sheetData>
